--- a/MicroGrids/Results/Source_Renewable_Data.xlsx
+++ b/MicroGrids/Results/Source_Renewable_Data.xlsx
@@ -420,10 +420,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>205.6759742501546</v>
+        <v>211.3819611842011</v>
       </c>
       <c r="C2">
-        <v>55.36708962487739</v>
+        <v>51.65877335318159</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -475,10 +475,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>77128.49034380796</v>
+        <v>79268.23544407543</v>
       </c>
       <c r="C7">
-        <v>20762.65860932902</v>
+        <v>19372.04000744309</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -486,10 +486,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1156.927355157119</v>
+        <v>1189.023531661131</v>
       </c>
       <c r="C8">
-        <v>311.4398791399353</v>
+        <v>290.5806001116464</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -497,10 +497,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>51418.99356253864</v>
+        <v>52845.49029605028</v>
       </c>
       <c r="C9">
-        <v>13841.77240621935</v>
+        <v>12914.6933382954</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Source_Renewable_Data.xlsx
+++ b/MicroGrids/Results/Source_Renewable_Data.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Source 1</t>
-  </si>
-  <si>
-    <t>Source 2</t>
   </si>
   <si>
     <t>Units</t>
@@ -401,106 +398,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>1470.973874895829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2">
-        <v>211.3819611842011</v>
-      </c>
-      <c r="C2">
-        <v>51.65877335318159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B3">
         <v>250</v>
       </c>
-      <c r="C3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1.5</v>
       </c>
-      <c r="C5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.015</v>
       </c>
-      <c r="C6">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>551615.2030859359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>79268.23544407543</v>
-      </c>
-      <c r="C7">
-        <v>19372.04000744309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>8274.228046289038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1189.023531661131</v>
-      </c>
-      <c r="C8">
-        <v>290.5806001116464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B9">
-        <v>52845.49029605028</v>
-      </c>
-      <c r="C9">
-        <v>12914.6933382954</v>
+        <v>367743.4687239573</v>
       </c>
     </row>
   </sheetData>
